--- a/projects/va_emerging_tech/data/sensitivityVariables_emerging_tech.xlsx
+++ b/projects/va_emerging_tech/data/sensitivityVariables_emerging_tech.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benne\PycharmProjects\coopercenter_temoatools\projects\va_emerging_tech\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3789607F-F3E1-49E3-A45C-85AD5364516C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66666E2B-7B91-460A-B63E-1F9650800DC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Globals" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="30">
   <si>
     <t>variable</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Retirement</t>
+  </si>
+  <si>
+    <t>CapacityCreditIncr</t>
   </si>
 </sst>
 </file>
@@ -180,7 +183,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -487,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,7 +519,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -538,7 +548,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B5">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -548,10 +558,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -570,31 +580,31 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -602,23 +612,23 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
@@ -626,7 +636,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1</v>
@@ -634,7 +644,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
@@ -642,7 +652,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1</v>
@@ -650,7 +660,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1</v>
@@ -658,7 +668,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1</v>
@@ -666,31 +676,31 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>20</v>
@@ -698,7 +708,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>20</v>
@@ -706,15 +716,19 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
@@ -730,7 +744,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
+      <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
@@ -762,14 +776,23 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
+      <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
     </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B19">
+  <conditionalFormatting sqref="B5:B20 B2:B3">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -781,10 +804,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -881,8 +904,16 @@
         <v>20</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B11">
+  <conditionalFormatting sqref="B2:B12">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -896,7 +927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>

--- a/projects/va_emerging_tech/data/sensitivityVariables_emerging_tech.xlsx
+++ b/projects/va_emerging_tech/data/sensitivityVariables_emerging_tech.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benne\PycharmProjects\coopercenter_temoatools\projects\va_emerging_tech\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66666E2B-7B91-460A-B63E-1F9650800DC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A63AED6-2BF5-4778-A39B-F064B4DEA929}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Globals" sheetId="5" r:id="rId1"/>
@@ -497,7 +497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -927,7 +927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>

--- a/projects/va_emerging_tech/data/sensitivityVariables_emerging_tech.xlsx
+++ b/projects/va_emerging_tech/data/sensitivityVariables_emerging_tech.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benne\PycharmProjects\coopercenter_temoatools\projects\va_emerging_tech\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A63AED6-2BF5-4778-A39B-F064B4DEA929}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B9DF93-E934-43CD-A349-9CD42898E2B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Globals" sheetId="5" r:id="rId1"/>
@@ -497,7 +497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -560,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -623,7 +623,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -687,7 +687,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -703,7 +703,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -711,7 +711,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -901,7 +901,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -909,7 +909,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
